--- a/doc stuff/data.xlsx
+++ b/doc stuff/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\CPT212-Asn1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\CPT212-Asn1\doc stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D94593-B594-4123-B47A-5D7B677FD68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C66C21F-F5CB-4E4C-B7C0-EA065DF86C0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3828" yWindow="1200" windowWidth="18876" windowHeight="10404" xr2:uid="{70043CCD-CF71-4FF8-B49A-2A7FAFADF74D}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{70043CCD-CF71-4FF8-B49A-2A7FAFADF74D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>n</t>
   </si>
@@ -71,64 +71,58 @@
     <t>15k</t>
   </si>
   <si>
-    <t>14n+9</t>
-  </si>
-  <si>
-    <t>6n+5</t>
-  </si>
-  <si>
-    <t>12(n-1)</t>
-  </si>
-  <si>
-    <t>35-36</t>
-  </si>
-  <si>
-    <t>65-67</t>
-  </si>
-  <si>
-    <t>18n-7</t>
-  </si>
-  <si>
-    <t>6(n^2-n)/2</t>
-  </si>
-  <si>
-    <t>7(n^2-n)/2</t>
-  </si>
-  <si>
-    <t>other part</t>
-  </si>
-  <si>
-    <t>outer for</t>
-  </si>
-  <si>
-    <t>inner for w/o if</t>
-  </si>
-  <si>
-    <t>3n^2-3n</t>
-  </si>
-  <si>
-    <t>3n^2+15n-7</t>
-  </si>
-  <si>
-    <t>explanation n^2</t>
-  </si>
-  <si>
-    <t>101-105</t>
-  </si>
-  <si>
-    <t>inner for w if</t>
-  </si>
-  <si>
-    <t>(7n^2-7n)/2</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>1/2(7n^2+29n-14)</t>
+    <t>13n^2/4+16n-3</t>
+  </si>
+  <si>
+    <t>3n^2+16n-3</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">worst </t>
+  </si>
+  <si>
+    <t>17n+12</t>
+  </si>
+  <si>
+    <t>to discuss</t>
+  </si>
+  <si>
+    <t>pc vs pc</t>
+  </si>
+  <si>
+    <t>random vs best vs worst</t>
+  </si>
+  <si>
+    <t>n vs n^2</t>
+  </si>
+  <si>
+    <t>time vs primitive</t>
+  </si>
+  <si>
+    <t>why best!=worst</t>
+  </si>
+  <si>
+    <t>why some time best higher worst/random</t>
+  </si>
+  <si>
+    <t>algorithm n</t>
+  </si>
+  <si>
+    <t>algorithm n^2</t>
+  </si>
+  <si>
+    <t>for, for , if</t>
   </si>
 </sst>
 </file>
@@ -483,324 +477,511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9EF34B-8747-427E-9DBD-28C5BD296ED6}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="7" max="9" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>0</v>
-      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3"/>
       <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.1685104370117101E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>9.9587440490722591E-4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>9.9706649780273394E-4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.00207328796386E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>4.9865245819091797E-3</v>
+      </c>
+      <c r="C8">
+        <v>7.0621967315673802E-3</v>
+      </c>
+      <c r="D8">
+        <v>4.9335956573486302E-3</v>
+      </c>
+      <c r="E8">
+        <v>5.7224273681640597E-2</v>
+      </c>
+      <c r="F8">
+        <v>6.7270278930663993E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8.0291271209716797E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>3.1884431838989202E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.7024021148681599E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.3218622207641602E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.68226838111877</v>
+      </c>
+      <c r="F9">
+        <v>1.68391633033752</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.73562836647033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>6.2784433364868095E-2</v>
+      </c>
+      <c r="C10">
+        <v>7.0411443710327107E-2</v>
+      </c>
+      <c r="D10">
+        <v>6.7517042160034096E-2</v>
+      </c>
+      <c r="E10">
+        <v>6.6311450004577601</v>
+      </c>
+      <c r="F10">
+        <v>6.4357779026031396</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6.6743645668029696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>9.4005107879638602E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.109351873397827</v>
+      </c>
+      <c r="D11">
+        <v>0.118180274963378</v>
+      </c>
+      <c r="E11">
+        <v>14.721699476242</v>
+      </c>
+      <c r="F11">
+        <v>14.618238210678101</v>
+      </c>
+      <c r="G11" s="1">
+        <v>15.365619182586601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0.13675522804260201</v>
+      </c>
+      <c r="C12">
+        <v>0.14276313781738201</v>
+      </c>
+      <c r="D12">
+        <v>0.15220689773559501</v>
+      </c>
+      <c r="E12">
+        <v>25.4894714355468</v>
+      </c>
+      <c r="F12">
+        <v>25.656317949295001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>26.5478818416595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15"/>
+      <c r="I15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N3" t="s">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16"/>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16" t="s">
         <v>21</v>
       </c>
-      <c r="O3" t="s">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" t="s">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1">
+        <v>182</v>
+      </c>
+      <c r="C19" s="1">
+        <v>457</v>
+      </c>
+      <c r="D19" s="1">
+        <v>482</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>100</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1712</v>
+      </c>
+      <c r="C20" s="1">
+        <v>31597</v>
+      </c>
+      <c r="D20">
+        <v>34097</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1">
+        <v>17012</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3015997</v>
+      </c>
+      <c r="D21">
+        <v>3265997</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>85012</v>
+      </c>
+      <c r="C22" s="1">
+        <v>75079997</v>
+      </c>
+      <c r="D22">
+        <v>81329997</v>
+      </c>
+      <c r="G22"/>
+      <c r="I22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
+        <v>170012</v>
+      </c>
+      <c r="C23" s="1">
+        <v>300159997</v>
+      </c>
+      <c r="D23">
+        <v>325159997</v>
+      </c>
+      <c r="G23"/>
+      <c r="I23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
+      <c r="B24" s="1">
+        <v>255012</v>
+      </c>
+      <c r="C24" s="1">
+        <v>675239997</v>
+      </c>
+      <c r="D24">
+        <v>731489997</v>
+      </c>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1">
+        <v>340012</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1200319997</v>
+      </c>
+      <c r="D25">
+        <v>1300319997</v>
+      </c>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
         <v>13</v>
       </c>
-      <c r="N4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1">
-        <v>149</v>
-      </c>
-      <c r="I5" s="1">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>100</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>9.9730491638183594E-4</v>
-      </c>
-      <c r="G6" s="1">
-        <v>100</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1409</v>
-      </c>
-      <c r="I6" s="1">
-        <v>31775</v>
-      </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>5.0210952758789002E-3</v>
-      </c>
-      <c r="C7">
-        <v>5.9373140335083001E-2</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="1">
-        <v>14009</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3017878</v>
-      </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>1.5714168548583901E-2</v>
-      </c>
-      <c r="C8">
-        <v>1.5086863040923999</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1">
-        <v>70009</v>
-      </c>
-      <c r="I8" s="1">
-        <v>75089948</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>3.26590538024902E-2</v>
-      </c>
-      <c r="C9">
-        <v>5.4267392158508301</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1">
-        <v>140009</v>
-      </c>
-      <c r="I9" s="1">
-        <v>300180116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>4.3137788772583001E-2</v>
-      </c>
-      <c r="C10">
-        <v>14.1266839504241</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="1">
-        <v>210009</v>
-      </c>
-      <c r="I10" s="1">
-        <v>675270438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>5.4904699325561503E-2</v>
-      </c>
-      <c r="C11">
-        <v>23.5031304359436</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1">
-        <v>280009</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1200360214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13"/>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13" s="1">
-        <v>37</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G14" s="1">
-        <v>3</v>
-      </c>
-      <c r="H14" s="1">
-        <v>51</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G15" s="1">
-        <v>4</v>
-      </c>
-      <c r="H15" s="1">
-        <v>65</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H16" s="1" t="s">
+      <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="I16" t="s">
-        <v>24</v>
-      </c>
+      <c r="G28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -808,21 +989,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100695F3B058DCD1E4E9C94F36C22D8392E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2a576fac2528a027e269c4d174fff77c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60b61a12b2bc913a912b2f8d044b5e3e">
     <xsd:element name="properties">
@@ -936,17 +1102,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80638CA7-DF12-46C1-9BBE-0EDEF15358A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F85BA186-ED22-46E4-AF3D-25D1FF76E672}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -960,17 +1142,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F85BA186-ED22-46E4-AF3D-25D1FF76E672}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80638CA7-DF12-46C1-9BBE-0EDEF15358A0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>